--- a/input/input.xlsx
+++ b/input/input.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Passwort</t>
   </si>
@@ -80,9 +80,6 @@
     <t>P@ssw0rd</t>
   </si>
   <si>
-    <t>liridontestuser1</t>
-  </si>
-  <si>
     <t>newanswer</t>
   </si>
   <si>
@@ -123,6 +120,12 @@
   </si>
   <si>
     <t>D.</t>
+  </si>
+  <si>
+    <t>liridonser1</t>
+  </si>
+  <si>
+    <t>54321421</t>
   </si>
 </sst>
 </file>
@@ -167,7 +170,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -532,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
         <v>6</v>
@@ -567,55 +570,55 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="2">
+        <v>10115</v>
+      </c>
+      <c r="N2" t="s">
         <v>24</v>
       </c>
-      <c r="M2">
-        <v>10115</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" s="2">
+        <v>123</v>
+      </c>
+      <c r="P2" t="s">
         <v>25</v>
       </c>
-      <c r="O2">
-        <v>123</v>
-      </c>
-      <c r="P2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>54321234</v>
+      <c r="Q2" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
